--- a/AnalysingVolume/ExportSheet_Q1.xlsx
+++ b/AnalysingVolume/ExportSheet_Q1.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Cart" sheetId="1" r:id="rId1"/>
-    <sheet name="Daily" sheetId="2" r:id="rId2"/>
+    <sheet name="Dately" sheetId="2" r:id="rId2"/>
+    <sheet name="DatelyCart" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -683,7 +684,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -697,27 +698,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>TotalVolume_Daily</t>
+          <t>TotalVolume_Dately</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TotalDelay_Daily</t>
+          <t>TotalDelay_Dately</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TotalSuccess_Daily</t>
+          <t>TotalSuccess_Dately</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>TotalReturned_Daily</t>
+          <t>TotalReturned_Dately</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Ratio_Success_Daily</t>
+          <t>Ratio_Success_Dately</t>
         </is>
       </c>
     </row>
@@ -875,18 +876,2241 @@
         <v>0.81827075944723</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DatelyStamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cart</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TotalVolume_Dately</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>TotalDelay_Dately</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TotalSuccess_Dately</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TotalReturned_Dately</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Ratio_Success_Dately</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>14-12-19</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CTVHT</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>323</v>
+      </c>
+      <c r="D2">
+        <v>124</v>
+      </c>
+      <c r="E2">
+        <v>187</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>0.5789473684210527</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>14-12-19</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PARTIME</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>355</v>
+      </c>
+      <c r="D3">
+        <v>74</v>
+      </c>
+      <c r="E3">
+        <v>269</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>0.7577464788732394</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>14-12-19</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PARTIME T</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>61</v>
+      </c>
+      <c r="D4">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>0.3278688524590164</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>14-12-19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SG17.22A</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>817</v>
+      </c>
+      <c r="D5">
+        <v>141</v>
+      </c>
+      <c r="E5">
+        <v>660</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>0.8078335373317014</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>14-12-19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SG17.22B</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>1407</v>
+      </c>
+      <c r="D6">
+        <v>780</v>
+      </c>
+      <c r="E6">
+        <v>602</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>0.4278606965174129</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14-12-19</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SG17.22C</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>2953</v>
+      </c>
+      <c r="D7">
+        <v>2004</v>
+      </c>
+      <c r="E7">
+        <v>897</v>
+      </c>
+      <c r="F7">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>0.3037588892651541</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14-12-19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SG17.22D</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>831</v>
+      </c>
+      <c r="D8">
+        <v>233</v>
+      </c>
+      <c r="E8">
+        <v>580</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>0.6979542719614922</v>
+      </c>
+    </row>
     <row r="9">
-      <c r="B9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14-12-19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SG17.22E</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>703</v>
+      </c>
+      <c r="D9">
+        <v>396</v>
+      </c>
+      <c r="E9">
+        <v>292</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>0.4153627311522048</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>14-12-19</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SG17.22F</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>265</v>
+      </c>
+      <c r="D10">
+        <v>76</v>
+      </c>
+      <c r="E10">
+        <v>177</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>0.6679245283018868</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>14-12-19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SG17.22G</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>607</v>
+      </c>
+      <c r="D11">
+        <v>140</v>
+      </c>
+      <c r="E11">
+        <v>445</v>
+      </c>
+      <c r="F11">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>0.7331136738056013</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>14-12-19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SG17.22H</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>246</v>
+      </c>
+      <c r="D12">
+        <v>123</v>
+      </c>
+      <c r="E12">
+        <v>114</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>0.4634146341463415</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>14-12-19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SG17.22I</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>467</v>
+      </c>
+      <c r="D13">
+        <v>83</v>
+      </c>
+      <c r="E13">
+        <v>373</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>0.7987152034261242</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>14-12-19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SG17.22K</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>260</v>
+      </c>
+      <c r="D14">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>221</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>15-12-19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CTVHT</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>134</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <v>73</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5447761194029851</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15-12-19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SG17.22C</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>72</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>59</v>
+      </c>
+      <c r="F16">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+      <c r="G16">
+        <v>0.8194444444444444</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>15-12-19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SG17.22G</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>117</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>96</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>0.8205128205128205</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>16-12-19</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CTVHT</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>1017</v>
+      </c>
+      <c r="D18">
+        <v>203</v>
+      </c>
+      <c r="E18">
+        <v>785</v>
+      </c>
+      <c r="F18">
+        <v>29</v>
+      </c>
+      <c r="G18">
+        <v>0.7718780727630286</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>16-12-19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PARTIME</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>464</v>
+      </c>
+      <c r="D19">
+        <v>96</v>
+      </c>
+      <c r="E19">
+        <v>355</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>0.7650862068965517</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>16-12-19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PARTIME T</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>175</v>
+      </c>
+      <c r="D20">
+        <v>90</v>
+      </c>
+      <c r="E20">
+        <v>80</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>0.4571428571428571</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>16-12-19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SG17.22A</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>1055</v>
+      </c>
+      <c r="D21">
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <v>980</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>0.9289099526066351</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>16-12-19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SG17.22B</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>2215</v>
+      </c>
+      <c r="D22">
+        <v>121</v>
+      </c>
+      <c r="E22">
+        <v>2072</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22">
+        <v>0.9354401805869075</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>16-12-19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SG17.22C</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>4235</v>
+      </c>
+      <c r="D23">
+        <v>333</v>
+      </c>
+      <c r="E23">
+        <v>3849</v>
+      </c>
+      <c r="F23">
+        <v>53</v>
+      </c>
+      <c r="G23">
+        <v>0.9088547815820543</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>16-12-19</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SG17.22D</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>1534</v>
+      </c>
+      <c r="D24">
+        <v>84</v>
+      </c>
+      <c r="E24">
+        <v>1423</v>
+      </c>
+      <c r="F24">
+        <v>27</v>
+      </c>
+      <c r="G24">
+        <v>0.9276401564537158</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>16-12-19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SG17.22E</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>1293</v>
+      </c>
+      <c r="D25">
+        <v>99</v>
+      </c>
+      <c r="E25">
+        <v>1184</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>0.9156999226604795</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>16-12-19</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SG17.22F</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>331</v>
+      </c>
+      <c r="D26">
+        <v>36</v>
+      </c>
+      <c r="E26">
+        <v>288</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>0.8700906344410876</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>16-12-19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SG17.22G</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>911</v>
+      </c>
+      <c r="D27">
+        <v>77</v>
+      </c>
+      <c r="E27">
+        <v>824</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>0.9045005488474204</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>16-12-19</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SG17.22H</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>324</v>
+      </c>
+      <c r="D28">
+        <v>60</v>
+      </c>
+      <c r="E28">
+        <v>261</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>0.8055555555555556</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>16-12-19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SG17.22I</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>833</v>
+      </c>
+      <c r="D29">
+        <v>74</v>
+      </c>
+      <c r="E29">
+        <v>746</v>
+      </c>
+      <c r="F29">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>0.8955582232893158</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>16-12-19</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SG17.22K</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>384</v>
+      </c>
+      <c r="D30">
+        <v>38</v>
+      </c>
+      <c r="E30">
+        <v>331</v>
+      </c>
+      <c r="F30">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>0.8619791666666666</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>17-12-19</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CTVHT</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>804</v>
+      </c>
+      <c r="D31">
+        <v>172</v>
+      </c>
+      <c r="E31">
+        <v>606</v>
+      </c>
+      <c r="F31">
+        <v>26</v>
+      </c>
+      <c r="G31">
+        <v>0.753731343283582</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>17-12-19</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PARTIME</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>357</v>
+      </c>
+      <c r="D32">
+        <v>52</v>
+      </c>
+      <c r="E32">
+        <v>289</v>
+      </c>
+      <c r="F32">
+        <v>16</v>
+      </c>
+      <c r="G32">
+        <v>0.8095238095238095</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>17-12-19</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PARTIME T</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>93</v>
+      </c>
+      <c r="D33">
+        <v>40</v>
+      </c>
+      <c r="E33">
+        <v>51</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>0.5483870967741935</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>17-12-19</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SG17.22A</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>910</v>
+      </c>
+      <c r="D34">
+        <v>77</v>
+      </c>
+      <c r="E34">
+        <v>814</v>
+      </c>
+      <c r="F34">
+        <v>19</v>
+      </c>
+      <c r="G34">
+        <v>0.8945054945054945</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>17-12-19</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SG17.22B</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>1989</v>
+      </c>
+      <c r="D35">
+        <v>140</v>
+      </c>
+      <c r="E35">
+        <v>1819</v>
+      </c>
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <v>0.9145299145299145</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>17-12-19</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SG17.22C</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>3717</v>
+      </c>
+      <c r="D36">
+        <v>433</v>
+      </c>
+      <c r="E36">
+        <v>3197</v>
+      </c>
+      <c r="F36">
+        <v>87</v>
+      </c>
+      <c r="G36">
+        <v>0.8601022329835889</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>17-12-19</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SG17.22D</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>1065</v>
+      </c>
+      <c r="D37">
+        <v>101</v>
+      </c>
+      <c r="E37">
+        <v>934</v>
+      </c>
+      <c r="F37">
+        <v>30</v>
+      </c>
+      <c r="G37">
+        <v>0.8769953051643192</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>17-12-19</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SG17.22E</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>939</v>
+      </c>
+      <c r="D38">
+        <v>141</v>
+      </c>
+      <c r="E38">
+        <v>777</v>
+      </c>
+      <c r="F38">
+        <v>21</v>
+      </c>
+      <c r="G38">
+        <v>0.8274760383386581</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>17-12-19</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SG17.22F</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>317</v>
+      </c>
+      <c r="D39">
+        <v>46</v>
+      </c>
+      <c r="E39">
+        <v>263</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>0.8296529968454258</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>17-12-19</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SG17.22G</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>653</v>
+      </c>
+      <c r="D40">
+        <v>71</v>
+      </c>
+      <c r="E40">
+        <v>564</v>
+      </c>
+      <c r="F40">
+        <v>18</v>
+      </c>
+      <c r="G40">
+        <v>0.8637059724349158</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>17-12-19</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SG17.22H</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>359</v>
+      </c>
+      <c r="D41">
+        <v>105</v>
+      </c>
+      <c r="E41">
+        <v>238</v>
+      </c>
+      <c r="F41">
+        <v>16</v>
+      </c>
+      <c r="G41">
+        <v>0.6629526462395543</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>17-12-19</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SG17.22I</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>688</v>
+      </c>
+      <c r="D42">
+        <v>54</v>
+      </c>
+      <c r="E42">
+        <v>619</v>
+      </c>
+      <c r="F42">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <v>0.8997093023255814</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>17-12-19</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SG17.22K</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>321</v>
+      </c>
+      <c r="D43">
+        <v>34</v>
+      </c>
+      <c r="E43">
+        <v>283</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>0.881619937694704</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>18-12-19</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CTVHT</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>880</v>
+      </c>
+      <c r="D44">
+        <v>179</v>
+      </c>
+      <c r="E44">
+        <v>656</v>
+      </c>
+      <c r="F44">
+        <v>45</v>
+      </c>
+      <c r="G44">
+        <v>0.7454545454545455</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>18-12-19</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>PARTIME</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>403</v>
+      </c>
+      <c r="D45">
+        <v>80</v>
+      </c>
+      <c r="E45">
+        <v>310</v>
+      </c>
+      <c r="F45">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>18-12-19</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>PARTIME T</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>158</v>
+      </c>
+      <c r="D46">
+        <v>68</v>
+      </c>
+      <c r="E46">
+        <v>85</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>0.5379746835443038</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>18-12-19</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SG17.22A</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>845</v>
+      </c>
+      <c r="D47">
+        <v>91</v>
+      </c>
+      <c r="E47">
+        <v>729</v>
+      </c>
+      <c r="F47">
+        <v>25</v>
+      </c>
+      <c r="G47">
+        <v>0.8627218934911243</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>18-12-19</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SG17.22B</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>1686</v>
+      </c>
+      <c r="D48">
+        <v>220</v>
+      </c>
+      <c r="E48">
+        <v>1426</v>
+      </c>
+      <c r="F48">
+        <v>40</v>
+      </c>
+      <c r="G48">
+        <v>0.8457888493475683</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>18-12-19</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SG17.22C</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>3454</v>
+      </c>
+      <c r="D49">
+        <v>407</v>
+      </c>
+      <c r="E49">
+        <v>2969</v>
+      </c>
+      <c r="F49">
+        <v>78</v>
+      </c>
+      <c r="G49">
+        <v>0.8595830920671685</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>18-12-19</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SG17.22D</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>1241</v>
+      </c>
+      <c r="D50">
+        <v>109</v>
+      </c>
+      <c r="E50">
+        <v>1111</v>
+      </c>
+      <c r="F50">
+        <v>21</v>
+      </c>
+      <c r="G50">
+        <v>0.895245769540693</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>18-12-19</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SG17.22E</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>963</v>
+      </c>
+      <c r="D51">
+        <v>148</v>
+      </c>
+      <c r="E51">
+        <v>793</v>
+      </c>
+      <c r="F51">
+        <v>22</v>
+      </c>
+      <c r="G51">
+        <v>0.8234683281412254</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>18-12-19</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SG17.22F</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>186</v>
+      </c>
+      <c r="D52">
+        <v>28</v>
+      </c>
+      <c r="E52">
+        <v>148</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>0.7956989247311828</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>18-12-19</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SG17.22G</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>602</v>
+      </c>
+      <c r="D53">
+        <v>66</v>
+      </c>
+      <c r="E53">
+        <v>519</v>
+      </c>
+      <c r="F53">
+        <v>17</v>
+      </c>
+      <c r="G53">
+        <v>0.8621262458471761</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>18-12-19</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SG17.22H</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>383</v>
+      </c>
+      <c r="D54">
+        <v>95</v>
+      </c>
+      <c r="E54">
+        <v>263</v>
+      </c>
+      <c r="F54">
+        <v>25</v>
+      </c>
+      <c r="G54">
+        <v>0.6866840731070496</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>18-12-19</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SG17.22I</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>591</v>
+      </c>
+      <c r="D55">
+        <v>59</v>
+      </c>
+      <c r="E55">
+        <v>516</v>
+      </c>
+      <c r="F55">
+        <v>16</v>
+      </c>
+      <c r="G55">
+        <v>0.8730964467005076</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>18-12-19</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SG17.22K</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>272</v>
+      </c>
+      <c r="D56">
+        <v>19</v>
+      </c>
+      <c r="E56">
+        <v>243</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>0.8933823529411765</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>19-12-19</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CTVHT</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>541</v>
+      </c>
+      <c r="D57">
+        <v>124</v>
+      </c>
+      <c r="E57">
+        <v>403</v>
+      </c>
+      <c r="F57">
+        <v>14</v>
+      </c>
+      <c r="G57">
+        <v>0.7449168207024029</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>19-12-19</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>PARTIME</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>370</v>
+      </c>
+      <c r="D58">
+        <v>54</v>
+      </c>
+      <c r="E58">
+        <v>306</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>0.827027027027027</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>19-12-19</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>PARTIME T</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>97</v>
+      </c>
+      <c r="D59">
+        <v>40</v>
+      </c>
+      <c r="E59">
+        <v>54</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>0.5567010309278351</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>19-12-19</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>SG17.22A</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>794</v>
+      </c>
+      <c r="D60">
+        <v>86</v>
+      </c>
+      <c r="E60">
+        <v>691</v>
+      </c>
+      <c r="F60">
+        <v>17</v>
+      </c>
+      <c r="G60">
+        <v>0.8702770780856424</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>19-12-19</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SG17.22B</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>1502</v>
+      </c>
+      <c r="D61">
+        <v>137</v>
+      </c>
+      <c r="E61">
+        <v>1332</v>
+      </c>
+      <c r="F61">
+        <v>33</v>
+      </c>
+      <c r="G61">
+        <v>0.8868175765645806</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>19-12-19</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SG17.22C</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>2619</v>
+      </c>
+      <c r="D62">
+        <v>392</v>
+      </c>
+      <c r="E62">
+        <v>2158</v>
+      </c>
+      <c r="F62">
+        <v>69</v>
+      </c>
+      <c r="G62">
+        <v>0.8239786177930508</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>19-12-19</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SG17.22D</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>970</v>
+      </c>
+      <c r="D63">
+        <v>98</v>
+      </c>
+      <c r="E63">
+        <v>845</v>
+      </c>
+      <c r="F63">
+        <v>27</v>
+      </c>
+      <c r="G63">
+        <v>0.8711340206185567</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>19-12-19</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SG17.22E</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>770</v>
+      </c>
+      <c r="D64">
+        <v>111</v>
+      </c>
+      <c r="E64">
+        <v>639</v>
+      </c>
+      <c r="F64">
+        <v>20</v>
+      </c>
+      <c r="G64">
+        <v>0.8298701298701299</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>19-12-19</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SG17.22F</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>226</v>
+      </c>
+      <c r="D65">
+        <v>60</v>
+      </c>
+      <c r="E65">
+        <v>157</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65">
+        <v>0.6946902654867256</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>19-12-19</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SG17.22G</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>581</v>
+      </c>
+      <c r="D66">
+        <v>59</v>
+      </c>
+      <c r="E66">
+        <v>503</v>
+      </c>
+      <c r="F66">
+        <v>19</v>
+      </c>
+      <c r="G66">
+        <v>0.8657487091222031</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>19-12-19</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SG17.22H</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>255</v>
+      </c>
+      <c r="D67">
+        <v>84</v>
+      </c>
+      <c r="E67">
+        <v>158</v>
+      </c>
+      <c r="F67">
+        <v>13</v>
+      </c>
+      <c r="G67">
+        <v>0.6196078431372549</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>19-12-19</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SG17.22I</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>488</v>
+      </c>
+      <c r="D68">
+        <v>46</v>
+      </c>
+      <c r="E68">
+        <v>426</v>
+      </c>
+      <c r="F68">
+        <v>16</v>
+      </c>
+      <c r="G68">
+        <v>0.8729508196721312</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>19-12-19</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SG17.22K</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>263</v>
+      </c>
+      <c r="D69">
+        <v>27</v>
+      </c>
+      <c r="E69">
+        <v>221</v>
+      </c>
+      <c r="F69">
+        <v>15</v>
+      </c>
+      <c r="G69">
+        <v>0.8403041825095057</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>20-12-19</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CTVHT</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>376</v>
+      </c>
+      <c r="D70">
+        <v>101</v>
+      </c>
+      <c r="E70">
+        <v>251</v>
+      </c>
+      <c r="F70">
+        <v>24</v>
+      </c>
+      <c r="G70">
+        <v>0.6675531914893617</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>20-12-19</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PARTIME</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>300</v>
+      </c>
+      <c r="D71">
+        <v>54</v>
+      </c>
+      <c r="E71">
+        <v>230</v>
+      </c>
+      <c r="F71">
+        <v>16</v>
+      </c>
+      <c r="G71">
+        <v>0.7666666666666667</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>20-12-19</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>PARTIME T</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>50</v>
+      </c>
+      <c r="D72">
+        <v>21</v>
+      </c>
+      <c r="E72">
+        <v>28</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>20-12-19</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SG17.22A</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>714</v>
+      </c>
+      <c r="D73">
+        <v>75</v>
+      </c>
+      <c r="E73">
+        <v>615</v>
+      </c>
+      <c r="F73">
+        <v>24</v>
+      </c>
+      <c r="G73">
+        <v>0.8613445378151261</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>20-12-19</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SG17.22B</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>1197</v>
+      </c>
+      <c r="D74">
+        <v>113</v>
+      </c>
+      <c r="E74">
+        <v>1060</v>
+      </c>
+      <c r="F74">
+        <v>24</v>
+      </c>
+      <c r="G74">
+        <v>0.885547201336675</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>20-12-19</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SG17.22C</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>2210</v>
+      </c>
+      <c r="D75">
+        <v>332</v>
+      </c>
+      <c r="E75">
+        <v>1802</v>
+      </c>
+      <c r="F75">
+        <v>76</v>
+      </c>
+      <c r="G75">
+        <v>0.8153846153846154</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>20-12-19</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SG17.22D</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>921</v>
+      </c>
+      <c r="D76">
+        <v>96</v>
+      </c>
+      <c r="E76">
+        <v>809</v>
+      </c>
+      <c r="F76">
+        <v>16</v>
+      </c>
+      <c r="G76">
+        <v>0.8783930510314875</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>20-12-19</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SG17.22E</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>658</v>
+      </c>
+      <c r="D77">
+        <v>96</v>
+      </c>
+      <c r="E77">
+        <v>546</v>
+      </c>
+      <c r="F77">
+        <v>16</v>
+      </c>
+      <c r="G77">
+        <v>0.8297872340425532</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>20-12-19</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SG17.22F</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>257</v>
+      </c>
+      <c r="D78">
+        <v>78</v>
+      </c>
+      <c r="E78">
+        <v>170</v>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+      <c r="G78">
+        <v>0.6614785992217899</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20-12-19</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SG17.22G</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>499</v>
+      </c>
+      <c r="D79">
+        <v>71</v>
+      </c>
+      <c r="E79">
+        <v>411</v>
+      </c>
+      <c r="F79">
+        <v>17</v>
+      </c>
+      <c r="G79">
+        <v>0.8236472945891784</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>20-12-19</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SG17.22H</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>236</v>
+      </c>
+      <c r="D80">
+        <v>80</v>
+      </c>
+      <c r="E80">
+        <v>140</v>
+      </c>
+      <c r="F80">
+        <v>16</v>
+      </c>
+      <c r="G80">
+        <v>0.5932203389830508</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20-12-19</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SG17.22I</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>509</v>
+      </c>
+      <c r="D81">
+        <v>60</v>
+      </c>
+      <c r="E81">
+        <v>431</v>
+      </c>
+      <c r="F81">
+        <v>18</v>
+      </c>
+      <c r="G81">
+        <v>0.8467583497053045</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20-12-19</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SG17.22K</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>250</v>
+      </c>
+      <c r="D82">
+        <v>44</v>
+      </c>
+      <c r="E82">
+        <v>198</v>
+      </c>
+      <c r="F82">
+        <v>8</v>
+      </c>
+      <c r="G82">
+        <v>0.792</v>
       </c>
     </row>
   </sheetData>
